--- a/Assignment02/docs/Sort timings.xlsx
+++ b/Assignment02/docs/Sort timings.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hcoble\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A964C46B-F02C-44BD-A457-9EBE1D304ED4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78F4F119-DED2-4EA8-9F96-7E276A83CCF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{69C75DAE-B79E-491E-88C2-83F0A4E4AD54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -40,7 +51,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,25 +369,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>192</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1086</c:v>
+                  <c:v>528</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2425</c:v>
+                  <c:v>708</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13637</c:v>
+                  <c:v>4317</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>317583</c:v>
+                  <c:v>119054</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1475,17 +1486,17 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1496,7 +1507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>5</v>
       </c>
@@ -1505,10 +1516,10 @@
         <v>11.60964047443681</v>
       </c>
       <c r="C2" s="2">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>10</v>
       </c>
@@ -1517,10 +1528,10 @@
         <v>33.219280948873624</v>
       </c>
       <c r="C3" s="2">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>100</v>
       </c>
@@ -1529,10 +1540,10 @@
         <v>664.38561897747252</v>
       </c>
       <c r="C4" s="2">
-        <v>192</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>500</v>
       </c>
@@ -1541,10 +1552,10 @@
         <v>4482.8921423310439</v>
       </c>
       <c r="C5" s="2">
-        <v>1086</v>
+        <v>528</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>1000</v>
       </c>
@@ -1553,10 +1564,10 @@
         <v>9965.7842846620879</v>
       </c>
       <c r="C6" s="2">
-        <v>2425</v>
+        <v>708</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>5000</v>
       </c>
@@ -1565,10 +1576,10 @@
         <v>61438.561897747255</v>
       </c>
       <c r="C7" s="2">
-        <v>13637</v>
+        <v>4317</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>100000</v>
       </c>
@@ -1577,7 +1588,7 @@
         <v>1660964.0474436812</v>
       </c>
       <c r="C8" s="2">
-        <v>317583</v>
+        <v>119054</v>
       </c>
     </row>
   </sheetData>
